--- a/data/trans_orig/IP33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615168A9-73D7-4E8D-AB55-46BAE4122CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63ADC20E-0C0C-4B07-8CEA-DCD4887434A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D534F3FE-F7FE-42D1-A919-B793D33B41F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{580DE26D-3C54-4C6B-80FB-E28A9CE2EC43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="294">
   <si>
     <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
   </si>
@@ -104,745 +104,763 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2015 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
     <t>61,45%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
@@ -1314,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DFFE54-9CB4-4BE7-BBD7-0A5EB33B2AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E40750-4C65-43B5-B436-8E37835155A3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2292,10 +2310,10 @@
         <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2304,13 +2322,13 @@
         <v>31145</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>103</v>
@@ -2319,13 +2337,13 @@
         <v>70581</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2358,13 @@
         <v>60140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -2355,13 +2373,13 @@
         <v>68255</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>191</v>
@@ -2370,13 +2388,13 @@
         <v>128396</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2450,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE90688-ED5B-4826-AAA8-F0C2FE8BC402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F153F-54FC-467A-9EDE-CC4D889A5730}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,7 +2487,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2582,7 +2600,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2610,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2659,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,10 +2692,10 @@
         <v>641</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>38</v>
@@ -2702,10 +2720,10 @@
         <v>641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>38</v>
@@ -2780,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2795,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2810,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2843,13 @@
         <v>4267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2840,13 +2858,13 @@
         <v>6672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -2855,13 +2873,13 @@
         <v>10939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2894,13 @@
         <v>16606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -2891,13 +2909,13 @@
         <v>16752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2906,13 +2924,13 @@
         <v>33358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3001,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3016,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3049,13 @@
         <v>24853</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3046,13 +3064,13 @@
         <v>39577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -3061,13 +3079,13 @@
         <v>64429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3100,13 @@
         <v>56486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -3097,13 +3115,13 @@
         <v>52019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>156</v>
@@ -3112,13 +3130,13 @@
         <v>108506</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3210,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3207,7 +3225,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3222,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3255,13 @@
         <v>15094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -3252,13 +3270,13 @@
         <v>12873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -3267,13 +3285,13 @@
         <v>27967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3306,13 @@
         <v>13844</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3303,13 +3321,13 @@
         <v>8043</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -3318,13 +3336,13 @@
         <v>21888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3413,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3428,7 +3446,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3461,13 @@
         <v>44214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -3458,13 +3476,13 @@
         <v>59122</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M21" s="7">
         <v>147</v>
@@ -3473,13 +3491,13 @@
         <v>103336</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3512,13 @@
         <v>87578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -3509,13 +3527,13 @@
         <v>76814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -3524,13 +3542,13 @@
         <v>164392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3604,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC66426-7E21-490B-B6D3-8348BE4AC6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA9DC3-E5E5-4F76-A844-678EFEC72F22}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,7 +3936,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3933,7 +3951,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3948,7 +3966,7 @@
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3981,13 @@
         <v>1219</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3978,13 +3996,13 @@
         <v>3875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -3993,13 +4011,13 @@
         <v>5095</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4032,13 @@
         <v>21899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4029,13 +4047,13 @@
         <v>10989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -4044,13 +4062,13 @@
         <v>32886</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4142,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4139,7 +4157,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4154,7 +4172,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4187,13 @@
         <v>48739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4184,13 +4202,13 @@
         <v>48517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -4199,13 +4217,13 @@
         <v>97256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4238,13 @@
         <v>80725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -4235,13 +4253,13 @@
         <v>81810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -4250,13 +4268,13 @@
         <v>162535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4348,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4345,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4360,7 +4378,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4393,13 @@
         <v>21133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -4390,13 +4408,13 @@
         <v>22991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -4405,13 +4423,13 @@
         <v>44124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4444,13 @@
         <v>18781</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4441,13 +4459,13 @@
         <v>19297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4456,13 +4474,13 @@
         <v>38078</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4554,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4551,7 +4569,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4566,7 +4584,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4599,13 @@
         <v>71091</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4596,13 +4614,13 @@
         <v>75384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>220</v>
@@ -4611,13 +4629,13 @@
         <v>146475</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4650,13 @@
         <v>121405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>165</v>
@@ -4647,13 +4665,13 @@
         <v>112095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>336</v>
@@ -4662,13 +4680,13 @@
         <v>233500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4742,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D38FCE-AC26-4102-9033-1570C112F6EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF3B1B-21AD-4D8C-8D27-9271624BB56C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4761,7 +4779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,10 +5068,10 @@
         <v>938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5065,10 +5083,10 @@
         <v>1717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5080,10 +5098,10 @@
         <v>2655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5107,7 +5125,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5122,7 +5140,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5137,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5173,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5188,7 +5206,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,10 +5274,10 @@
         <v>11065</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5271,10 +5289,10 @@
         <v>16988</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5286,10 +5304,10 @@
         <v>28053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5313,7 +5331,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5328,7 +5346,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5343,7 +5361,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5382,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5379,7 +5397,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5394,7 +5412,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +5480,10 @@
         <v>1580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -5477,10 +5495,10 @@
         <v>1348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -5492,10 +5510,10 @@
         <v>2928</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -5519,7 +5537,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5534,7 +5552,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5549,7 +5567,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,7 +5588,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5585,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5600,7 +5618,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,10 +5686,10 @@
         <v>13583</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -5683,10 +5701,10 @@
         <v>20053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -5698,10 +5716,10 @@
         <v>33636</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -5725,7 +5743,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5755,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5806,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,7 +5880,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP33A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP33A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63ADC20E-0C0C-4B07-8CEA-DCD4887434A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6873051-952D-44AD-B84E-E3644845E429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{580DE26D-3C54-4C6B-80FB-E28A9CE2EC43}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D908CB78-8A0A-4826-B5A5-471A3986C4D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="294">
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="361">
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2007 (Tasa respuesta: 13,97%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,859 +68,1060 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>996.0</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>Progenitores según si viven actualmente en pareja en 2023 (Tasa respuesta: 26,09%)</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>52,48%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2012 (Tasa respuesta: 18,34%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>47,64%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2016 (Tasa respuesta: 26,15%)</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>Adultos según si viven actualmente en pareja en 2023 (Tasa respuesta: 2,5%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E40750-4C65-43B5-B436-8E37835155A3}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB70B3C-88F4-4B7E-A689-CC166A1659A3}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1452,131 +1653,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3422</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3246</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6668</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26321</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15514</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41835</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,48 +1804,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29743</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I7" s="7">
+        <v>18760</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="N7" s="7">
+        <v>48503</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1638,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1653,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1668,115 +1893,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>3246</v>
+        <v>19576</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>3422</v>
+        <v>24435</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>6668</v>
+        <v>44012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>15514</v>
+        <v>25701</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>26321</v>
+        <v>35143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>41835</v>
+        <v>60843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,54 +2010,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>18760</v>
+        <v>45277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>29743</v>
+        <v>59578</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="N11" s="7">
-        <v>48503</v>
+        <v>104855</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1844,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1859,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1874,115 +2099,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
-        <v>35</v>
-      </c>
       <c r="D13" s="7">
-        <v>24435</v>
+        <v>8146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>11755</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="7">
         <v>29</v>
       </c>
-      <c r="I13" s="7">
-        <v>19576</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
       <c r="N13" s="7">
-        <v>44012</v>
+        <v>19901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>35143</v>
+        <v>16235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>25701</v>
+        <v>9483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>60843</v>
+        <v>25718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,54 +2216,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
-        <v>59578</v>
+        <v>24381</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>45277</v>
+        <v>21238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>104855</v>
+        <v>45619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2065,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2080,115 +2305,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>11755</v>
+        <v>31145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I17" s="7">
-        <v>8146</v>
+        <v>39436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="N17" s="7">
-        <v>19901</v>
+        <v>70581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7">
-        <v>9483</v>
+        <v>68255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I18" s="7">
-        <v>16235</v>
+        <v>60140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="N18" s="7">
-        <v>25718</v>
+        <v>128396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,267 +2422,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7">
-        <v>21238</v>
+        <v>99400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>24381</v>
+        <v>99576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="N19" s="7">
-        <v>45619</v>
+        <v>198977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7">
-        <v>39436</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="7">
-        <v>46</v>
-      </c>
-      <c r="I21" s="7">
-        <v>31145</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="7">
-        <v>103</v>
-      </c>
-      <c r="N21" s="7">
-        <v>70581</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>91</v>
-      </c>
-      <c r="D22" s="7">
-        <v>60140</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <v>68255</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="7">
-        <v>191</v>
-      </c>
-      <c r="N22" s="7">
-        <v>128396</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>148</v>
-      </c>
-      <c r="D23" s="7">
-        <v>99576</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>146</v>
-      </c>
-      <c r="I23" s="7">
-        <v>99400</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>294</v>
-      </c>
-      <c r="N23" s="7">
-        <v>198977</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2470,8 +2488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F153F-54FC-467A-9EDE-CC4D889A5730}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87AAB6E-A17B-45B8-96C1-8CDE8B35D92E}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2487,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2594,139 +2612,145 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4267</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>16752</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>16606</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>33358</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,52 +2759,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>23424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="7">
+        <v>20873</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>44297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2792,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2807,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2822,115 +2848,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>4267</v>
+        <v>39577</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>6672</v>
+        <v>24853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="N9" s="7">
-        <v>10939</v>
+        <v>64429</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>16606</v>
+        <v>52019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>16752</v>
+        <v>56486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="N10" s="7">
-        <v>33358</v>
+        <v>108506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,54 +2965,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>20873</v>
+        <v>91596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>23424</v>
+        <v>81339</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="N11" s="7">
-        <v>44297</v>
+        <v>172935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2998,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3013,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3028,115 +3054,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>24853</v>
+        <v>12873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>39577</v>
+        <v>15094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>64429</v>
+        <v>27967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>56486</v>
+        <v>8043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>52019</v>
+        <v>13844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>108506</v>
+        <v>21888</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,54 +3171,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>81339</v>
+        <v>20916</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7">
-        <v>91596</v>
+        <v>28938</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="N15" s="7">
-        <v>172935</v>
+        <v>49855</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3204,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3219,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3234,115 +3260,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>15094</v>
+        <v>59122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I17" s="7">
-        <v>12873</v>
+        <v>44214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>27967</v>
+        <v>103335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>13844</v>
+        <v>76814</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I18" s="7">
-        <v>8043</v>
+        <v>86936</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="N18" s="7">
-        <v>21888</v>
+        <v>163751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,267 +3377,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D19" s="7">
-        <v>28938</v>
+        <v>135936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I19" s="7">
-        <v>20916</v>
+        <v>131150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>72</v>
+        <v>384</v>
       </c>
       <c r="N19" s="7">
-        <v>49855</v>
+        <v>267086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7">
-        <v>44214</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="7">
-        <v>86</v>
-      </c>
-      <c r="I21" s="7">
-        <v>59122</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" s="7">
-        <v>147</v>
-      </c>
-      <c r="N21" s="7">
-        <v>103336</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>126</v>
-      </c>
-      <c r="D22" s="7">
-        <v>87578</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="7">
-        <v>112</v>
-      </c>
-      <c r="I22" s="7">
-        <v>76814</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" s="7">
-        <v>238</v>
-      </c>
-      <c r="N22" s="7">
-        <v>164392</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>187</v>
-      </c>
-      <c r="D23" s="7">
-        <v>131792</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>198</v>
-      </c>
-      <c r="I23" s="7">
-        <v>135936</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>385</v>
-      </c>
-      <c r="N23" s="7">
-        <v>267728</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3624,8 +3443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AA9DC3-E5E5-4F76-A844-678EFEC72F22}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84DDCB5-5653-4540-A6A6-5AA5EB2DC527}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3641,7 +3460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,131 +3563,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3875</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1219</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5095</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10989</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I6" s="7">
+        <v>21899</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N6" s="7">
+        <v>32886</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,48 +3714,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14864</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="7">
+        <v>23118</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="N7" s="7">
+        <v>37981</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3930,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3945,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3960,115 +3803,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>1219</v>
+        <v>48517</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="I9" s="7">
-        <v>3875</v>
+        <v>48739</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="N9" s="7">
-        <v>5095</v>
+        <v>97256</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D10" s="7">
-        <v>21899</v>
+        <v>81810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I10" s="7">
-        <v>10989</v>
+        <v>80725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="N10" s="7">
-        <v>32886</v>
+        <v>162535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,54 +3920,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
-        <v>23118</v>
+        <v>130327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I11" s="7">
-        <v>14864</v>
+        <v>129464</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="N11" s="7">
-        <v>37981</v>
+        <v>259791</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4136,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4151,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4166,115 +4009,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>48739</v>
+        <v>22991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>48517</v>
+        <v>21133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>97256</v>
+        <v>44124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>80725</v>
+        <v>19297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>81810</v>
+        <v>18781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>162535</v>
+        <v>38078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,54 +4126,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7">
-        <v>129464</v>
+        <v>42288</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>130327</v>
+        <v>39914</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="N15" s="7">
-        <v>259791</v>
+        <v>82202</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4342,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4357,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4372,115 +4215,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>21133</v>
+        <v>75384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7">
-        <v>22991</v>
+        <v>71091</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="N17" s="7">
-        <v>44124</v>
+        <v>146475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D18" s="7">
-        <v>18781</v>
+        <v>112095</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I18" s="7">
-        <v>19297</v>
+        <v>121405</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>38078</v>
+        <v>233500</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,267 +4332,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="D19" s="7">
-        <v>39914</v>
+        <v>187479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="I19" s="7">
-        <v>42288</v>
+        <v>192496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>556</v>
       </c>
       <c r="N19" s="7">
-        <v>82202</v>
+        <v>379975</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>103</v>
-      </c>
-      <c r="D21" s="7">
-        <v>71091</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="7">
-        <v>117</v>
-      </c>
-      <c r="I21" s="7">
-        <v>75384</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M21" s="7">
-        <v>220</v>
-      </c>
-      <c r="N21" s="7">
-        <v>146475</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>121405</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H22" s="7">
-        <v>165</v>
-      </c>
-      <c r="I22" s="7">
-        <v>112095</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M22" s="7">
-        <v>336</v>
-      </c>
-      <c r="N22" s="7">
-        <v>233500</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>274</v>
-      </c>
-      <c r="D23" s="7">
-        <v>192496</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>282</v>
-      </c>
-      <c r="I23" s="7">
-        <v>187479</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>556</v>
-      </c>
-      <c r="N23" s="7">
-        <v>379975</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4762,8 +4398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF3B1B-21AD-4D8C-8D27-9271624BB56C}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348EF2D-2A43-4DB7-B091-957549DB27C6}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4779,7 +4415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4880,133 +4516,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1699</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>954</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2653</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2126</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6882</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9008</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>11334</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11841</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N6" s="7">
+        <v>23175</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,198 +4669,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15160</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I7" s="7">
+        <v>19677</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N7" s="7">
+        <v>34837</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>938</v>
+        <v>16392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>1717</v>
+        <v>11272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>2655</v>
+        <v>27664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>35720</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>54570</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>90290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>66581</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>85789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>152369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,204 +4875,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7">
-        <v>938</v>
+        <v>118693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
-        <v>1717</v>
+        <v>151631</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="N11" s="7">
-        <v>2655</v>
+        <v>270323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>11065</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>16988</v>
+        <v>1670</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>28053</v>
+        <v>2991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>12194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>26244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>15202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>23396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>38597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,204 +5081,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>11065</v>
+        <v>28717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I15" s="7">
-        <v>16988</v>
+        <v>39115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>28053</v>
+        <v>67832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>1580</v>
+        <v>19412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>1348</v>
+        <v>13896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>2928</v>
+        <v>33308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>50041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>75501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>125542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>93117</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>353</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>121025</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>214142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,267 +5287,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="D19" s="7">
-        <v>1580</v>
+        <v>162570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="I19" s="7">
-        <v>1348</v>
+        <v>210422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="N19" s="7">
-        <v>2928</v>
+        <v>372992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7">
-        <v>13583</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="7">
-        <v>31</v>
-      </c>
-      <c r="I20" s="7">
-        <v>20053</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="7">
-        <v>48</v>
-      </c>
-      <c r="N20" s="7">
-        <v>33636</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7">
-        <v>13583</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>31</v>
-      </c>
-      <c r="I23" s="7">
-        <v>20053</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>48</v>
-      </c>
-      <c r="N23" s="7">
-        <v>33636</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
